--- a/results/comparison_GoTPlainLLM/GoTPlainLLM_costs.xlsx
+++ b/results/comparison_GoTPlainLLM/GoTPlainLLM_costs.xlsx
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32.93302416801453</v>
+        <v>20.20839214324951</v>
       </c>
       <c r="B2" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C2" t="n">
-        <v>8.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.93302130699158</v>
+        <v>20.2083888053894</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.13585138320923</v>
+        <v>19.95772457122803</v>
       </c>
       <c r="B3" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21.1358494758606</v>
+        <v>19.95772218704224</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -529,13 +529,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.25567007064819</v>
+        <v>14.73306679725647</v>
       </c>
       <c r="B4" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C4" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.2556676864624</v>
+        <v>14.73306465148926</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.79800128936768</v>
+        <v>16.37832760810852</v>
       </c>
       <c r="B5" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14.79799914360046</v>
+        <v>16.37832474708557</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.95980954170227</v>
+        <v>16.96751046180725</v>
       </c>
       <c r="B6" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C6" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.95980668067932</v>
+        <v>16.9675087928772</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>52.46963381767273</v>
+        <v>24.07819175720215</v>
       </c>
       <c r="B7" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C7" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.46963095664978</v>
+        <v>24.07818913459778</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.92425870895386</v>
+        <v>28.93512892723083</v>
       </c>
       <c r="B8" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C8" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>19.92425656318665</v>
+        <v>28.93512606620789</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.81591987609863</v>
+        <v>18.44850063323975</v>
       </c>
       <c r="B9" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C9" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>18.81591796875</v>
+        <v>18.44849872589111</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19.76827478408813</v>
+        <v>19.16741538047791</v>
       </c>
       <c r="B10" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C10" t="n">
         <v>10.9</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>19.76827239990234</v>
+        <v>19.16741299629211</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -711,13 +711,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22.48280119895935</v>
+        <v>22.09217643737793</v>
       </c>
       <c r="B11" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C11" t="n">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>22.4827995300293</v>
+        <v>22.09217381477356</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>34.74292683601379</v>
+        <v>23.34405970573425</v>
       </c>
       <c r="B12" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C12" t="n">
         <v>10.6</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>34.74292421340942</v>
+        <v>23.34405755996704</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -763,13 +763,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>23.57348418235779</v>
+        <v>21.51630616188049</v>
       </c>
       <c r="B13" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C13" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>23.57348203659058</v>
+        <v>21.51630425453186</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23.48933172225952</v>
+        <v>29.37796425819397</v>
       </c>
       <c r="B14" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C14" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>23.48932909965515</v>
+        <v>29.37796211242676</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.87927651405334</v>
+        <v>16.37391400337219</v>
       </c>
       <c r="B15" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>21.87927460670471</v>
+        <v>16.3739116191864</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -841,13 +841,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17.51711630821228</v>
+        <v>21.30186223983765</v>
       </c>
       <c r="B16" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C16" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>17.51711392402649</v>
+        <v>21.30186009407043</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19.00844216346741</v>
+        <v>18.96530485153198</v>
       </c>
       <c r="B17" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>19.00843977928162</v>
+        <v>18.96530270576477</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>34.23179197311401</v>
+        <v>21.5268919467926</v>
       </c>
       <c r="B18" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C18" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>34.23178935050964</v>
+        <v>21.52688956260681</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.88525748252869</v>
+        <v>19.72332882881165</v>
       </c>
       <c r="B19" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>19.88525557518005</v>
+        <v>19.72332644462585</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25.62621426582336</v>
+        <v>20.35370993614197</v>
       </c>
       <c r="B20" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C20" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>25.62621188163757</v>
+        <v>20.35370802879333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.00047421455383</v>
+        <v>16.86152195930481</v>
       </c>
       <c r="B21" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C21" t="n">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>19.00047206878662</v>
+        <v>16.8615198135376</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19.14584827423096</v>
+        <v>27.27500057220459</v>
       </c>
       <c r="B22" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C22" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.14584612846375</v>
+        <v>27.2749981880188</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>26.12326097488403</v>
+        <v>26.45057916641235</v>
       </c>
       <c r="B23" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C23" t="n">
         <v>11.1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>26.12325835227966</v>
+        <v>26.45057654380798</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15.43478965759277</v>
+        <v>20.61796998977661</v>
       </c>
       <c r="B24" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C24" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>15.43478751182556</v>
+        <v>20.6179678440094</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12.67552399635315</v>
+        <v>16.0600483417511</v>
       </c>
       <c r="B25" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C25" t="n">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.67552161216736</v>
+        <v>16.06004667282104</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14.38245344161987</v>
+        <v>15.98785471916199</v>
       </c>
       <c r="B26" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C26" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.38245129585266</v>
+        <v>15.9878523349762</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11.7765154838562</v>
+        <v>14.74884819984436</v>
       </c>
       <c r="B27" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C27" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>11.77651309967041</v>
+        <v>14.74884581565857</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21.66779685020447</v>
+        <v>17.4378936290741</v>
       </c>
       <c r="B28" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C28" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>21.66779470443726</v>
+        <v>17.43789100646973</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1179,13 +1179,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13.80329012870789</v>
+        <v>15.09557819366455</v>
       </c>
       <c r="B29" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C29" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>13.80328822135925</v>
+        <v>15.09557580947876</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1205,13 +1205,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17.66541862487793</v>
+        <v>13.85271620750427</v>
       </c>
       <c r="B30" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C30" t="n">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>17.66541624069214</v>
+        <v>13.85271406173706</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17.01869082450867</v>
+        <v>14.90504813194275</v>
       </c>
       <c r="B31" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C31" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.01868891716003</v>
+        <v>14.90504598617554</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18.04558634757996</v>
+        <v>17.73605585098267</v>
       </c>
       <c r="B32" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C32" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>18.04558396339417</v>
+        <v>17.73605346679688</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21.72465348243713</v>
+        <v>22.78242349624634</v>
       </c>
       <c r="B33" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C33" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>21.72464990615845</v>
+        <v>22.78242158889771</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18.65286684036255</v>
+        <v>20.91930818557739</v>
       </c>
       <c r="B34" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C34" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.65286445617676</v>
+        <v>20.91930603981018</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21.33079433441162</v>
+        <v>22.47612571716309</v>
       </c>
       <c r="B35" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C35" t="n">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>21.33079171180725</v>
+        <v>22.47612309455872</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19.6631817817688</v>
+        <v>20.32740139961243</v>
       </c>
       <c r="B36" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C36" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>19.66317915916443</v>
+        <v>20.32739949226379</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>20.27805399894714</v>
+        <v>19.15871143341064</v>
       </c>
       <c r="B37" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C37" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.27805161476135</v>
+        <v>19.1587085723877</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>26.5564227104187</v>
+        <v>19.77750611305237</v>
       </c>
       <c r="B38" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C38" t="n">
         <v>10.8</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>26.55642032623291</v>
+        <v>19.77750420570374</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1439,13 +1439,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.04595685005188</v>
+        <v>17.01350069046021</v>
       </c>
       <c r="B39" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C39" t="n">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>27.04595398902893</v>
+        <v>17.01349830627441</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15.79669404029846</v>
+        <v>15.114009141922</v>
       </c>
       <c r="B40" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C40" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.79669165611267</v>
+        <v>15.11400675773621</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17.92160892486572</v>
+        <v>15.44945287704468</v>
       </c>
       <c r="B41" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C41" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>17.92160677909851</v>
+        <v>15.44945025444031</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14.46149921417236</v>
+        <v>15.86126089096069</v>
       </c>
       <c r="B42" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C42" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>14.46149682998657</v>
+        <v>15.86125874519348</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16.06110239028931</v>
+        <v>19.4684681892395</v>
       </c>
       <c r="B43" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C43" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>16.06109976768494</v>
+        <v>19.46846580505371</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>26.30652523040771</v>
+        <v>31.94454669952393</v>
       </c>
       <c r="B44" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C44" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>26.3065230846405</v>
+        <v>31.94454383850098</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18.47704458236694</v>
+        <v>20.53400301933289</v>
       </c>
       <c r="B45" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C45" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>18.47704148292542</v>
+        <v>20.53400087356567</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23.88442134857178</v>
+        <v>26.07737278938293</v>
       </c>
       <c r="B46" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C46" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>23.88441896438599</v>
+        <v>26.0773708820343</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21.59605717658997</v>
+        <v>19.34514474868774</v>
       </c>
       <c r="B47" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C47" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>21.5960545539856</v>
+        <v>19.34514284133911</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27.01297521591187</v>
+        <v>16.889892578125</v>
       </c>
       <c r="B48" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C48" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>27.01297330856323</v>
+        <v>16.88989043235779</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19.11106491088867</v>
+        <v>20.37932252883911</v>
       </c>
       <c r="B49" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C49" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>19.1110622882843</v>
+        <v>20.3793203830719</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>22.47949576377869</v>
+        <v>17.42970156669617</v>
       </c>
       <c r="B50" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C50" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>22.47949314117432</v>
+        <v>17.42969942092896</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15.45457601547241</v>
+        <v>22.17871594429016</v>
       </c>
       <c r="B51" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C51" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>15.45457315444946</v>
+        <v>22.17871379852295</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>34.70317649841309</v>
+        <v>35.18469166755676</v>
       </c>
       <c r="B52" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C52" t="n">
         <v>10.6</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>34.70317411422729</v>
+        <v>35.18468880653381</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17.70473003387451</v>
+        <v>45.13058233261108</v>
       </c>
       <c r="B53" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C53" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>17.7047278881073</v>
+        <v>45.13057923316956</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>16.80833220481873</v>
+        <v>27.99520373344421</v>
       </c>
       <c r="B54" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C54" t="n">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>16.80832958221436</v>
+        <v>27.99520087242126</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>18.48308277130127</v>
+        <v>31.06554555892944</v>
       </c>
       <c r="B55" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C55" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>18.48308062553406</v>
+        <v>31.06554341316223</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18.12950372695923</v>
+        <v>18.1724750995636</v>
       </c>
       <c r="B56" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C56" t="n">
         <v>11.1</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>18.1295018196106</v>
+        <v>18.17247319221497</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>21.99619221687317</v>
+        <v>29.57243299484253</v>
       </c>
       <c r="B57" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C57" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>21.99618983268738</v>
+        <v>29.5724310874939</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>21.01087474822998</v>
+        <v>24.79690766334534</v>
       </c>
       <c r="B58" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C58" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>21.01087260246277</v>
+        <v>24.79690599441528</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>21.21993970870972</v>
+        <v>70.33502459526062</v>
       </c>
       <c r="B59" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C59" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>21.21993780136108</v>
+        <v>70.33502268791199</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>26.23387503623962</v>
+        <v>22.53480935096741</v>
       </c>
       <c r="B60" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C60" t="n">
         <v>10.7</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>26.23387169837952</v>
+        <v>22.53480744361877</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21.67794752120972</v>
+        <v>21.6947033405304</v>
       </c>
       <c r="B61" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C61" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>21.67794585227966</v>
+        <v>21.69470191001892</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14.68391919136047</v>
+        <v>17.95080852508545</v>
       </c>
       <c r="B62" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C62" t="n">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>14.68391728401184</v>
+        <v>17.95080661773682</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>17.61943960189819</v>
+        <v>19.13504576683044</v>
       </c>
       <c r="B63" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C63" t="n">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>17.61943769454956</v>
+        <v>19.13504385948181</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>19.37497591972351</v>
+        <v>19.84299254417419</v>
       </c>
       <c r="B64" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C64" t="n">
         <v>11</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>19.3749737739563</v>
+        <v>19.84298944473267</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>18.91194319725037</v>
+        <v>19.82795667648315</v>
       </c>
       <c r="B65" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C65" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>18.91194152832031</v>
+        <v>19.82795429229736</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20.38372182846069</v>
+        <v>16.98676586151123</v>
       </c>
       <c r="B66" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C66" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>20.38371968269348</v>
+        <v>16.9867639541626</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2167,13 +2167,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>19.59940052032471</v>
+        <v>16.63107991218567</v>
       </c>
       <c r="B67" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C67" t="n">
-        <v>10.9</v>
+        <v>10.2</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>19.59939861297607</v>
+        <v>16.63107824325562</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>17.77588796615601</v>
+        <v>39.10432744026184</v>
       </c>
       <c r="B68" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="C68" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>17.77588605880737</v>
+        <v>39.10432529449463</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
